--- a/Desktop/Amir/Verifikasi Micropipet/UPM Temperature Correction Worksheet.xlsx
+++ b/Desktop/Amir/Verifikasi Micropipet/UPM Temperature Correction Worksheet.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\10.41.163.147\Users\gunasama\Desktop\Amir\Verifikasi Micropipet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\Verifikasi Micropipet\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21239085-B209-4632-8657-481664BC7749}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="150736002" sheetId="1" r:id="rId1"/>
     <sheet name="111668831" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -91,7 +92,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
@@ -536,7 +537,6 @@
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
-              <c:layout/>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -2798,14 +2798,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:H3"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2865,7 +2865,7 @@
       </c>
       <c r="E4" s="36"/>
       <c r="F4" s="38">
-        <v>46121</v>
+        <v>46269</v>
       </c>
       <c r="G4" s="39"/>
       <c r="H4" s="39"/>
@@ -3086,7 +3086,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>

--- a/Desktop/Amir/Verifikasi Micropipet/UPM Temperature Correction Worksheet.xlsx
+++ b/Desktop/Amir/Verifikasi Micropipet/UPM Temperature Correction Worksheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20397"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20339"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gunasama\Desktop\Amir\Verifikasi Micropipet\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21239085-B209-4632-8657-481664BC7749}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5081A0D-8737-42C9-A898-C762B91BEB6D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -351,6 +351,18 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -399,18 +411,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2804,8 +2804,8 @@
   </sheetPr>
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L29" sqref="L29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2838,37 +2838,37 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21">
         <v>150736002</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38">
+      <c r="E4" s="20"/>
+      <c r="F4" s="22">
         <v>46269</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -2990,10 +2990,10 @@
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24" s="24" t="s">
+      <c r="A24" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B24" s="24"/>
+      <c r="B24" s="28"/>
       <c r="C24" s="14" t="s">
         <v>10</v>
       </c>
@@ -3003,62 +3003,62 @@
       <c r="E24" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="25">
+      <c r="F24" s="29">
         <v>0.35639999999999999</v>
       </c>
-      <c r="G24" s="25"/>
-      <c r="H24" s="26"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="24"/>
-      <c r="B25" s="24"/>
-      <c r="C25" s="27" t="s">
+      <c r="A25" s="28"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="33"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A26" s="24" t="s">
+      <c r="A26" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B26" s="24"/>
-      <c r="C26" s="30">
+      <c r="B26" s="28"/>
+      <c r="C26" s="34">
         <v>21.7</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="31"/>
-      <c r="F26" s="31"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="D26" s="35"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A27" s="24"/>
-      <c r="B27" s="24"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="34"/>
-      <c r="H27" s="35"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="38"/>
+      <c r="G27" s="38"/>
+      <c r="H27" s="39"/>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A28" s="20" t="s">
+      <c r="A28" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="21">
+      <c r="B28" s="24"/>
+      <c r="C28" s="25">
         <f>(C26*D24)+F24</f>
         <v>22.11065</v>
       </c>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="23"/>
+      <c r="D28" s="26"/>
+      <c r="E28" s="26"/>
+      <c r="F28" s="26"/>
+      <c r="G28" s="26"/>
+      <c r="H28" s="27"/>
     </row>
     <row r="29" spans="1:8" ht="32.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
@@ -3066,11 +3066,6 @@
     <protectedRange algorithmName="SHA-512" hashValue="hilzrYbnv1tc7GF08d14Qi+4O5M7PzjHBQnsdtVxDZn6odzNEnrsriltFWZOaUdRqGM1vXZta6yekYaD6+891w==" saltValue="ymOFKISGSRl3rqHHJZ8LMw==" spinCount="100000" sqref="A1:XFD23" name="Range1"/>
   </protectedRanges>
   <mergeCells count="12">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
     <mergeCell ref="A28:B28"/>
     <mergeCell ref="C28:H28"/>
     <mergeCell ref="A24:B25"/>
@@ -3078,6 +3073,11 @@
     <mergeCell ref="C25:H25"/>
     <mergeCell ref="A26:B27"/>
     <mergeCell ref="C26:H27"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" orientation="portrait" r:id="rId1"/>
@@ -3126,37 +3126,37 @@
       <c r="I2" s="3"/>
     </row>
     <row r="3" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="36"/>
-      <c r="C3" s="37">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21">
         <v>111668831</v>
       </c>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="21"/>
+      <c r="H3" s="21"/>
       <c r="I3" s="3"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="36"/>
+      <c r="B4" s="20"/>
       <c r="C4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="36" t="s">
+      <c r="D4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="36"/>
-      <c r="F4" s="38">
+      <c r="E4" s="20"/>
+      <c r="F4" s="22">
         <v>45542</v>
       </c>
-      <c r="G4" s="39"/>
-      <c r="H4" s="39"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
       <c r="I4" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -3265,9 +3265,9 @@
       <c r="E23" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="25"/>
-      <c r="G23" s="25"/>
-      <c r="H23" s="26"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="47"/>
@@ -3286,22 +3286,22 @@
         <v>13</v>
       </c>
       <c r="B25" s="46"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="31"/>
-      <c r="E25" s="31"/>
-      <c r="F25" s="31"/>
-      <c r="G25" s="31"/>
-      <c r="H25" s="32"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="47"/>
       <c r="B26" s="48"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="34"/>
-      <c r="H26" s="35"/>
+      <c r="C26" s="37"/>
+      <c r="D26" s="38"/>
+      <c r="E26" s="38"/>
+      <c r="F26" s="38"/>
+      <c r="G26" s="38"/>
+      <c r="H26" s="39"/>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="40" t="s">
@@ -3322,11 +3322,6 @@
   </sheetData>
   <sheetProtection selectLockedCells="1"/>
   <mergeCells count="12">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:H3"/>
-    <mergeCell ref="A4:B4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="F4:H4"/>
     <mergeCell ref="A27:B27"/>
     <mergeCell ref="C27:H27"/>
     <mergeCell ref="A23:B24"/>
@@ -3334,6 +3329,11 @@
     <mergeCell ref="C24:H24"/>
     <mergeCell ref="A25:B26"/>
     <mergeCell ref="C25:H26"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:H3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="F4:H4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="90" fitToHeight="0" orientation="portrait" r:id="rId1"/>
